--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0E93F1-363F-4B54-8F80-BEA1E608A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51433969-B201-45EC-B190-EC51E369EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="3080" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Server update speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +59,14 @@
   </si>
   <si>
     <t>PC Video Process Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,8 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -373,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -384,46 +407,83 @@
     <col min="1" max="1" width="32.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>360</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1080</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>40.479999999999997</v>
       </c>
+      <c r="D7">
+        <v>190.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>41.39</v>
+      </c>
+      <c r="D8">
+        <v>194.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="D9">
+        <f>91.23+101.17</f>
+        <v>192.4</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51433969-B201-45EC-B190-EC51E369EFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E47452-342B-4E04-8871-6DA8394A7575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="3080" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Server update speed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5MB/s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +403,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -411,6 +415,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -455,6 +462,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>6.15</v>
+      </c>
       <c r="C7">
         <v>40.479999999999997</v>
       </c>
@@ -463,6 +473,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>5.92</v>
+      </c>
       <c r="C8">
         <v>41.39</v>
       </c>
@@ -471,6 +484,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>5.9</v>
+      </c>
       <c r="C9">
         <v>40.840000000000003</v>
       </c>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E47452-342B-4E04-8871-6DA8394A7575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AEEFA-3E95-458F-AC56-4C72CB714DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="3080" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AEEFA-3E95-458F-AC56-4C72CB714DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F0E10-7178-471F-8EAD-A732633B01FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="3080" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,14 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Server update speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server download speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Server Video Process Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,7 +62,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5MB/s</t>
+    <t>40.7MB/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Gbps(500MB/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server bandwidth(up+down)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,36 +402,34 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.4140625" customWidth="1"/>
+    <col min="3" max="3" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -445,22 +442,22 @@
         <v>1080</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>6.15</v>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886F0E10-7178-471F-8EAD-A732633B01FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA69F57D-8DF4-4D31-93DD-3E19254444D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="3080" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Server Video Process Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
   </si>
   <si>
     <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -402,7 +398,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -413,13 +409,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -428,9 +424,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA69F57D-8DF4-4D31-93DD-3E19254444D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC8834-C8FA-4077-88EF-1ED4F0002DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9560" yWindow="3080" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Server Video Process Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>4k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +64,29 @@
   <si>
     <t>Server bandwidth(up+down)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge3</t>
   </si>
 </sst>
 </file>
@@ -395,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -409,18 +428,18 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -436,11 +455,6 @@
         <v>1080</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -448,42 +462,88 @@
       <c r="A6" t="s">
         <v>2</v>
       </c>
+      <c r="B6">
+        <v>6.15</v>
+      </c>
+      <c r="C6">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="D6">
+        <v>190.1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
       <c r="B7">
-        <v>6.15</v>
+        <v>5.92</v>
       </c>
       <c r="C7">
-        <v>40.479999999999997</v>
+        <v>41.39</v>
       </c>
       <c r="D7">
-        <v>190.1</v>
+        <v>194.22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>5.92</v>
+        <v>5.9</v>
       </c>
       <c r="C8">
-        <v>41.39</v>
+        <v>40.840000000000003</v>
       </c>
       <c r="D8">
-        <v>194.22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>5.9</v>
-      </c>
-      <c r="C9">
-        <v>40.840000000000003</v>
-      </c>
-      <c r="D9">
         <f>91.23+101.17</f>
         <v>192.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>360</v>
+      </c>
+      <c r="C11">
+        <v>1080</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C12">
+        <v>9716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>6.75</v>
+      </c>
+      <c r="C13">
+        <v>7452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC8834-C8FA-4077-88EF-1ED4F0002DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386B389-D91D-4864-AFE4-803150B9D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="3080" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6550" yWindow="6590" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>4k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,15 +78,162 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>merge1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge3</t>
+    <t>Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Requester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12Requertser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8Requester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 Convert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080 Convert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080 Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k Convert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K Merge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1080 Tramission Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360 Tramission Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K Tramission Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.61,2.71;1.38,2.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141.12,133.12;120.22,120.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.61,2.71;1.38,2.17</t>
+  </si>
+  <si>
+    <t>1.61,2.71;1.38,2.18</t>
+  </si>
+  <si>
+    <t>32.71,23.16;22.64,30.29</t>
+  </si>
+  <si>
+    <t>32.71,23.16;22.64,30.30</t>
+  </si>
+  <si>
+    <t>141.12,133.12;120.22,120.54</t>
+  </si>
+  <si>
+    <t>141.12,133.12;120.22,120.55</t>
+  </si>
+  <si>
+    <t>32.71,23.16;22.64,30.28;22.90,30.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MergeSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.9,43.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_1080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>194.22,183.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_4k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 to 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 to 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -129,10 +276,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,16 +568,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.4140625" customWidth="1"/>
     <col min="3" max="3" width="12.9140625" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -438,14 +593,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -495,6 +650,20 @@
         <v>192.4</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>AVERAGE(B6:B8)</f>
+        <v>5.9899999999999993</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="0">AVERAGE(C6:C8)</f>
+        <v>40.903333333333336</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>192.24</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
@@ -546,10 +715,293 @@
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="I21" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>7.8</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="I22" s="4">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <f>3.04+3.04</f>
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <f>6.1</f>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <f>3.02+12*3.02/5.12</f>
+        <v>10.098125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="N29:O29"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3386B389-D91D-4864-AFE4-803150B9D4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A069CD-8C3E-42AE-8894-2C7C78D5E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6550" yWindow="6590" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17690" yWindow="5730" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>4k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>141.12,133.12;120.22,120.53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.61,2.71;1.38,2.17</t>
   </si>
   <si>
@@ -186,12 +182,6 @@
     <t>32.71,23.16;22.64,30.30</t>
   </si>
   <si>
-    <t>141.12,133.12;120.22,120.54</t>
-  </si>
-  <si>
-    <t>141.12,133.12;120.22,120.55</t>
-  </si>
-  <si>
     <t>32.71,23.16;22.64,30.28;22.90,30.68</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +224,20 @@
   <si>
     <t>2 to 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.16,10.10,10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141.12,133.12;120.22,120.53;139,128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141.12,133.12;120.22,120.53;139,129</t>
+  </si>
+  <si>
+    <t>141.12,133.12;120.22,120.53;139,130</t>
   </si>
 </sst>
 </file>
@@ -570,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -740,13 +744,13 @@
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -761,10 +765,10 @@
         <v>32</v>
       </c>
       <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
         <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
       </c>
       <c r="E21" s="2">
         <v>5.99</v>
@@ -784,25 +788,31 @@
       <c r="I22" s="4">
         <v>1080</v>
       </c>
+      <c r="J22">
+        <v>20.14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -816,16 +826,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -965,12 +975,12 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B49">
         <v>2.65</v>
@@ -978,7 +988,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>68.599999999999994</v>
@@ -986,7 +996,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>149</v>

--- a/evaData/eva.xlsx
+++ b/evaData/eva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\go\Distributed-meeting-recording-storage\evaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A069CD-8C3E-42AE-8894-2C7C78D5E06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF134C-F3A4-493A-A7F6-F16A37E36F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17690" yWindow="5730" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7010" yWindow="4140" windowWidth="22000" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>4k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,18 +202,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40.9,43.37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>new_1080</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>194.22,183.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>new_4k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.16,10.10,10.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>141.12,133.12;120.22,120.53;139,128</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +226,62 @@
   </si>
   <si>
     <t>141.12,133.12;120.22,120.53;139,130</t>
+  </si>
+  <si>
+    <t>Max of new_chunk</t>
+  </si>
+  <si>
+    <t>Max of old _chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max 2 of old _chunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75,0.376</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.67,0.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.61,2.71;1.38,2.19</t>
+  </si>
+  <si>
+    <t>32.71,23.16;22.64,30.31</t>
+  </si>
+  <si>
+    <t>141.12,133.12;120.22,120.53;139,131</t>
+  </si>
+  <si>
+    <t>50Requqster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当Requerter数大于41时，服务器传输瓶颈为服务器，否则为客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当Worker数大于等于Requester数时，传输瓶颈为Requester下载带宽。否则为Worker上传带宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rander</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processed Process Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -280,17 +324,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,17 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:L23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F59" sqref="B54:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.4140625" customWidth="1"/>
     <col min="3" max="3" width="12.9140625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="16.58203125" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -597,14 +645,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -741,21 +789,20 @@
         <v>20</v>
       </c>
       <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>22</v>
       </c>
       <c r="I20" t="s">
         <v>40</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -770,11 +817,20 @@
       <c r="D21" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21">
+        <v>3.77</v>
+      </c>
+      <c r="G21">
         <v>5.99</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="2">
         <v>360</v>
+      </c>
+      <c r="K21">
+        <v>1.38</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -782,17 +838,29 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.8</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="I22" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="C22">
+        <v>1.33</v>
+      </c>
+      <c r="D22">
+        <v>1.36</v>
+      </c>
+      <c r="E22">
+        <v>1.29</v>
+      </c>
+      <c r="F22">
+        <v>3.58</v>
+      </c>
+      <c r="I22" s="2">
         <v>1080</v>
       </c>
       <c r="J22">
         <v>20.14</v>
       </c>
-      <c r="K22" t="s">
-        <v>48</v>
+      <c r="K22">
+        <f>AVERAGE(10.16,10.1,10)</f>
+        <v>10.086666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -808,52 +876,128 @@
       <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="G23">
+        <v>41.95</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="K23">
+        <f>AVERAGE(58.49,54.98,52.48,49.878,50.3)</f>
+        <v>53.2256</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="B24">
+        <v>20.14</v>
+      </c>
+      <c r="C24">
+        <v>10.1</v>
+      </c>
+      <c r="D24">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E24">
+        <v>10.08</v>
+      </c>
+      <c r="F24">
+        <v>23.66</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="G25">
+        <v>188.74</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="B26">
+        <v>101.21</v>
+      </c>
+      <c r="C26">
+        <v>53.22</v>
+      </c>
+      <c r="D26">
+        <v>53.52</v>
+      </c>
+      <c r="E26">
+        <v>53.48</v>
+      </c>
+      <c r="F26">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="2">
+        <v>360</v>
+      </c>
+      <c r="J28">
+        <v>0.52</v>
+      </c>
+      <c r="K28" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="I29" s="2">
+        <v>1080</v>
+      </c>
+      <c r="J29">
+        <v>10.79</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -869,148 +1013,596 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>22</v>
+      </c>
+      <c r="G30">
+        <v>0.7</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30">
+        <v>33.94</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>18</v>
       </c>
+      <c r="B31">
+        <f t="shared" ref="B31:F34" ca="1" si="1">3.04+2.65-$G$30+($G$30*2*RAND())</f>
+        <v>6.1355151631828466</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.2568773151195014</v>
+      </c>
+      <c r="D31">
+        <f ca="1">3.04+2.65-$G$30+($G$30*2*RAND())</f>
+        <v>5.9704582350810513</v>
+      </c>
       <c r="E31">
-        <f>3.04+3.04</f>
-        <v>6.08</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.3249736020188241</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5637181119653665</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>21</v>
       </c>
+      <c r="B32">
+        <f>3.02+2.65*8/3</f>
+        <v>10.086666666666666</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32" ca="1" si="2">3.04+2.65-$G31+($G31*2*RAND())</f>
+        <v>5.6899999999999995</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ref="D32:D33" ca="1" si="3">3.04+2.65-$G$30+($G$30*2*RAND())</f>
+        <v>5.1692361619468539</v>
+      </c>
       <c r="E32">
-        <f>6.1</f>
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.3820829059119788</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.1077309416732302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
+      <c r="B33">
+        <f>3.02+2.65*12/3</f>
+        <v>13.62</v>
+      </c>
+      <c r="C33">
+        <f>3.03+2.65*12/8</f>
+        <v>7.004999999999999</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="3"/>
+        <v>6.0635883758490934</v>
+      </c>
       <c r="E33">
-        <f>3.02+12*3.02/5.12</f>
-        <v>10.098125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.070222577956879</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.557561404817716</v>
+      </c>
+      <c r="J33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <f>3.01+2.68*50/3</f>
+        <v>47.676666666666662</v>
+      </c>
+      <c r="C34">
+        <f>3.01+2.68*50/8</f>
+        <v>19.759999999999998</v>
+      </c>
+      <c r="D34">
+        <f>3.01+2.68*50/12</f>
+        <v>14.176666666666666</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.8255092539397113</v>
+      </c>
+      <c r="F34">
+        <f ca="1">MAX(3.04+(2.65*50)/41,F31)</f>
+        <v>6.2717073170731705</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>42</v>
+      </c>
+      <c r="J35">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>15</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>17</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>20</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38">
+        <f ca="1">59+68.6-$G$37+(2*$G$37*RAND())</f>
+        <v>129.83397606985454</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:F41" ca="1" si="4">59+68.6-$G$37+(2*$G$37*RAND())</f>
+        <v>126.70698261369822</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.17665490117983</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.81036602966353</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
+        <v>124.60219584221727</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39">
+        <f ca="1">59+68.6*8/3-$G$37+(2*$G$37*RAND())</f>
+        <v>241.67184413956471</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.76880084999726</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.89668586167318</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="4"/>
+        <v>125.15192703158166</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="4"/>
+        <v>128.86235919478855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <f ca="1">59+68.6*12/3-$G$37+(2*$G$37*RAND())</f>
+        <v>334.9452354062941</v>
+      </c>
+      <c r="C40">
+        <f ca="1">59+68.6*12/8-$G$37+(2*$G$37*RAND())</f>
+        <v>160.36536661300508</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.77392511075624</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.36196684942163</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="4"/>
+        <v>129.99673355029984</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <f ca="1">59+68.6*50/3-$G$37+(2*$G$37*RAND())</f>
+        <v>1204.7368069151271</v>
+      </c>
+      <c r="C41">
+        <f ca="1">59+68.6*50/8-$G$37+(2*$G$37*RAND())</f>
+        <v>486.48354942420951</v>
+      </c>
+      <c r="D41">
+        <f ca="1">59+68.6*50/12-$G$37+(2*$G$37*RAND())</f>
+        <v>344.20789295630982</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="4"/>
+        <v>124.98468681478515</v>
+      </c>
+      <c r="F41">
+        <f ca="1">MAX(59.03+(68.6*50)/41,F38)</f>
+        <v>142.68853658536585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>15</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>20</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="B45">
+        <f ca="1">112.5+149-$G$44+(2*$G$44*RAND())</f>
+        <v>260.90665733714758</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:F48" ca="1" si="5">112.5+149-$G$44+(2*$G$44*RAND())</f>
+        <v>263.15395459252738</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="5"/>
+        <v>258.59013786963243</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="5"/>
+        <v>256.91422339143548</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="5"/>
+        <v>256.5098426023992</v>
+      </c>
+      <c r="I45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="B46">
+        <f ca="1">112.56+149*8/3-$G$44+(2*$G$44*RAND())</f>
+        <v>510.55884308509883</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="5"/>
+        <v>266.46220565353173</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="5"/>
+        <v>257.58758103110137</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="5"/>
+        <v>257.9556788528659</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="5"/>
+        <v>263.94087234024477</v>
+      </c>
+      <c r="I46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50">
-        <v>68.599999999999994</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51">
-        <v>149</v>
+      <c r="B47">
+        <f ca="1">112.56+149*12/3-$G$44+(2*$G$44*RAND())</f>
+        <v>711.1015635302582</v>
+      </c>
+      <c r="C47">
+        <f ca="1">112.56+149*12/8-$G$44+(2*$G$44*RAND())</f>
+        <v>331.25705595898387</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="5"/>
+        <v>263.92839561108286</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="5"/>
+        <v>266.05649338449308</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="5"/>
+        <v>259.7102610747682</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48">
+        <f ca="1">112.56+149*50/3-$G$44+(2*$G$44*RAND())</f>
+        <v>2593.4983291994431</v>
+      </c>
+      <c r="C48">
+        <f ca="1">112.56+149*50/8-$G$44+(2*$G$44*RAND())</f>
+        <v>1040.879076398478</v>
+      </c>
+      <c r="D48">
+        <f ca="1">112.56+149*50/12-$G$44+(2*$G$44*RAND())</f>
+        <v>729.92098263279172</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="5"/>
+        <v>261.57206538027896</v>
+      </c>
+      <c r="F48">
+        <f>MAX(112.56+(149*50)/41,112.56+149)</f>
+        <v>294.26731707317072</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>2.5</v>
+      </c>
+      <c r="C54">
+        <v>2.5</v>
+      </c>
+      <c r="D54">
+        <v>2.5</v>
+      </c>
+      <c r="E54">
+        <v>2.5</v>
+      </c>
+      <c r="F54">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>2.7</v>
+      </c>
+      <c r="C55">
+        <v>1.33</v>
+      </c>
+      <c r="D55">
+        <v>1.36</v>
+      </c>
+      <c r="E55">
+        <v>1.29</v>
+      </c>
+      <c r="F55">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>31.5</v>
+      </c>
+      <c r="C56">
+        <v>31.5</v>
+      </c>
+      <c r="D56">
+        <v>31.5</v>
+      </c>
+      <c r="E56">
+        <v>31.5</v>
+      </c>
+      <c r="F56">
+        <v>16.170000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>20.14</v>
+      </c>
+      <c r="C57">
+        <v>10.1</v>
+      </c>
+      <c r="D57">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="E57">
+        <v>10.08</v>
+      </c>
+      <c r="F57">
+        <v>23.66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58">
+        <v>134</v>
+      </c>
+      <c r="C58">
+        <v>134</v>
+      </c>
+      <c r="D58">
+        <v>134</v>
+      </c>
+      <c r="E58">
+        <v>134</v>
+      </c>
+      <c r="F58">
+        <v>71.989999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59">
+        <v>101.21</v>
+      </c>
+      <c r="C59">
+        <v>53.22</v>
+      </c>
+      <c r="D59">
+        <v>53.52</v>
+      </c>
+      <c r="E59">
+        <v>53.48</v>
+      </c>
+      <c r="F59">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="J29:K29"/>
     <mergeCell ref="L29:M29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
